--- a/bsd-api-dms-order/sample_Order_File_aice_v3 - 10 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_aice_v3 - 10 data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42170FC1-E53B-468F-9405-70333F23BE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7861A480-EA52-4FF6-9A30-4D933638BC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,15 +176,9 @@
     <t xml:space="preserve">AICE Milk Melon Stick 50g AICE牛奶密瓜支50g	</t>
   </si>
   <si>
-    <t>CV Borneo Traserna Jaya Food</t>
-  </si>
-  <si>
     <t>PT. KANGNY FOOD TRADING - Medan Barat</t>
   </si>
   <si>
-    <t>INV/20231106/00/02</t>
-  </si>
-  <si>
     <t>Aice</t>
   </si>
   <si>
@@ -200,7 +194,13 @@
     <t>5/5</t>
   </si>
   <si>
-    <t>INV/20231106/00/03</t>
+    <t>KANGNY_FOOD_TRADING_SUBDIST_1</t>
+  </si>
+  <si>
+    <t>INV/20231211/24/01</t>
+  </si>
+  <si>
+    <t>INV/20231211/24/02</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8:I11"/>
     </sheetView>
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>35</v>
@@ -682,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>1000</v>
@@ -729,13 +729,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>36</v>
@@ -762,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>1000</v>
@@ -809,13 +809,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>37</v>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>1000</v>
@@ -889,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -907,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>38</v>
@@ -922,7 +922,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>1000</v>
@@ -969,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -987,10 +987,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>39</v>
@@ -1002,7 +1002,7 @@
         <v>25</v>
       </c>
       <c r="N6">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>1000</v>
@@ -1049,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>25</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>1000</v>
@@ -1129,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>53</v>
@@ -1162,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="N8">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <v>1000</v>
@@ -1209,13 +1209,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
         <v>53</v>
@@ -1242,7 +1242,7 @@
         <v>25</v>
       </c>
       <c r="N9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>1000</v>
@@ -1289,13 +1289,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
@@ -1322,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="N10">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>1000</v>
@@ -1369,13 +1369,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1387,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>53</v>
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="N11">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>1000</v>

--- a/bsd-api-dms-order/sample_Order_File_aice_v3 - 10 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_aice_v3 - 10 data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7861A480-EA52-4FF6-9A30-4D933638BC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497CF4EC-A6AE-4014-A041-6FF0D1BB72F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="54">
   <si>
     <t>Row</t>
   </si>
@@ -197,10 +197,10 @@
     <t>KANGNY_FOOD_TRADING_SUBDIST_1</t>
   </si>
   <si>
-    <t>INV/20231211/24/01</t>
-  </si>
-  <si>
-    <t>INV/20231211/24/02</t>
+    <t>INV/20231214/24/01</t>
+  </si>
+  <si>
+    <t>INV/20231214/24/02</t>
   </si>
 </sst>
 </file>
@@ -491,46 +491,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG11"/>
+  <dimension ref="A1:BF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8:I11"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="139.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="139.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="89.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -574,47 +573,45 @@
         <v>11</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -642,9 +639,8 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
     </row>
-    <row r="2" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -685,46 +681,43 @@
         <v>2</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>1000</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S2">
-        <v>1000</v>
-      </c>
-      <c r="T2">
-        <v>1000</v>
-      </c>
-      <c r="U2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -765,46 +758,43 @@
         <v>2</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>1000</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S3">
-        <v>1000</v>
-      </c>
-      <c r="T3">
-        <v>12000</v>
-      </c>
-      <c r="U3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T3" t="s">
         <v>29</v>
       </c>
+      <c r="V3" t="s">
+        <v>30</v>
+      </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -845,46 +835,43 @@
         <v>2</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>1000</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S4">
-        <v>1000</v>
-      </c>
-      <c r="T4">
-        <v>2500</v>
-      </c>
-      <c r="U4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T4" t="s">
         <v>29</v>
       </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
       <c r="W4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -925,46 +912,43 @@
         <v>2</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>1000</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S5">
-        <v>1000</v>
-      </c>
-      <c r="T5">
-        <v>1500</v>
-      </c>
-      <c r="U5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T5" t="s">
         <v>29</v>
       </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
       <c r="W5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1005,46 +989,43 @@
         <v>2</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>1000</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S6">
-        <v>1000</v>
-      </c>
-      <c r="T6">
-        <v>10000</v>
-      </c>
-      <c r="U6" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T6" t="s">
         <v>29</v>
       </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
       <c r="W6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1085,46 +1066,43 @@
         <v>2</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>1000</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S7">
-        <v>1000</v>
-      </c>
-      <c r="T7">
-        <v>1000</v>
-      </c>
-      <c r="U7" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T7" t="s">
         <v>29</v>
       </c>
+      <c r="V7" t="s">
+        <v>30</v>
+      </c>
       <c r="W7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1165,46 +1143,43 @@
         <v>2</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>1000</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S8">
-        <v>1000</v>
-      </c>
-      <c r="T8">
-        <v>12000</v>
-      </c>
-      <c r="U8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T8" t="s">
         <v>29</v>
       </c>
+      <c r="V8" t="s">
+        <v>30</v>
+      </c>
       <c r="W8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1245,46 +1220,43 @@
         <v>2</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>1000</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S9">
-        <v>1000</v>
-      </c>
-      <c r="T9">
-        <v>2500</v>
-      </c>
-      <c r="U9" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T9" t="s">
         <v>29</v>
       </c>
+      <c r="V9" t="s">
+        <v>30</v>
+      </c>
       <c r="W9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1325,46 +1297,43 @@
         <v>2</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>1000</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S10">
-        <v>1000</v>
-      </c>
-      <c r="T10">
-        <v>1500</v>
-      </c>
-      <c r="U10" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T10" t="s">
         <v>29</v>
       </c>
+      <c r="V10" t="s">
+        <v>30</v>
+      </c>
       <c r="W10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1405,42 +1374,39 @@
         <v>2</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>1000</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S11">
-        <v>1000</v>
-      </c>
-      <c r="T11">
-        <v>10000</v>
-      </c>
-      <c r="U11" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T11" t="s">
         <v>29</v>
       </c>
+      <c r="V11" t="s">
+        <v>30</v>
+      </c>
       <c r="W11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB11" t="s">
         <v>30</v>
       </c>
     </row>
